--- a/docentes/Aurioles Maldonado Luis Gustavo - Estadisticos 2020.xlsx
+++ b/docentes/Aurioles Maldonado Luis Gustavo - Estadisticos 2020.xlsx
@@ -558,19 +558,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
@@ -626,16 +626,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H2">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -649,16 +652,19 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.70999999999999</v>
+      </c>
+      <c r="H3">
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -672,16 +678,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>65.70999999999999</v>
+      </c>
+      <c r="H4">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -695,16 +704,19 @@
         <v>36</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>36</v>
       </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +784,7 @@
         <v>82.05</v>
       </c>
       <c r="H2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -798,7 +810,7 @@
         <v>88.56999999999999</v>
       </c>
       <c r="H3">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -824,7 +836,7 @@
         <v>88.56999999999999</v>
       </c>
       <c r="H4">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -838,16 +850,16 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>9.5</v>

--- a/docentes/Aurioles Maldonado Luis Gustavo - Estadisticos 2020.xlsx
+++ b/docentes/Aurioles Maldonado Luis Gustavo - Estadisticos 2020.xlsx
@@ -480,19 +480,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>82.05</v>
+        <v>84.62</v>
       </c>
       <c r="H2">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -626,19 +626,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -652,19 +652,19 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>65.70999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="H3">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -678,19 +678,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>65.70999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="H4">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -772,19 +772,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>82.05</v>
+        <v>84.62</v>
       </c>
       <c r="H2">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -836,7 +836,7 @@
         <v>88.56999999999999</v>
       </c>
       <c r="H4">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
